--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\workdir\BBdata\GitHub\Diabetes.Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0946A9D7-7909-403B-A34D-EE9CEDA2FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4128AD-8B4A-4D5E-8817-D784A78EBFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97AEA7D5-8005-43BD-8443-694ADBBC5B00}"/>
   </bookViews>
@@ -18,17 +18,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet1 (2)'!$Q$6:$Q$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet1 (2)'!$R$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet1 (2)'!$R$6:$R$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet1 (2)'!$S$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet1 (2)'!$S$6:$S$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet1 (2)'!$T$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet1 (2)'!$T$6:$T$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet1 (2)'!$U$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet1 (2)'!$U$6:$U$26</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -240,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -321,16 +310,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -339,17 +325,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -357,109 +345,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1962,16 +1848,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2415,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2782EA4D-2C73-427A-867F-C384C329BF08}">
   <dimension ref="A5:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,26 +2318,26 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="12"/>
       <c r="Q5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -2460,7 +2346,7 @@
       <c r="U5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2474,41 +2360,41 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.34507399999999999</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.70162599999999997</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.23949999999999999</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <f>IFERROR(VLOOKUP(Q6,E:F,2,0),"")</f>
         <v>0.34507399999999999</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f>IFERROR(VLOOKUP(Q6,I:J,2,0),"")</f>
         <v>0.70162599999999997</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <f>IFERROR(VLOOKUP(Q6,M:N,2,0),"")</f>
         <v>0.69599999999999995</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <f>IFERROR(VLOOKUP(Q6,A:B,2,0),"")</f>
         <v>7.0749999999999993E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2522,41 +2408,41 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.29008299999999998</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1.10043</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.58189999999999997</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <f t="shared" ref="R7:R26" si="0">IFERROR(VLOOKUP(Q7,E:F,2,0),"")</f>
         <v>0.29008299999999998</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f t="shared" ref="S7:S26" si="1">IFERROR(VLOOKUP(Q7,I:J,2,0),"")</f>
         <v>0.58045199999999997</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <f t="shared" ref="T7:T26" si="2">IFERROR(VLOOKUP(Q7,M:N,2,0),"")</f>
         <v>0.58189999999999997</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="8">
         <f t="shared" ref="U7:U26" si="3">IFERROR(VLOOKUP(Q7,A:B,2,0),"")</f>
         <v>3.9087999999999998E-2</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2570,41 +2456,41 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.194526</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>-0.62845799999999996</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <f t="shared" si="0"/>
         <v>0.194526</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f t="shared" si="1"/>
         <v>1.10043</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <f t="shared" si="2"/>
         <v>1.2230000000000001</v>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="U8" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2618,41 +2504,41 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.53867900000000002</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.58045199999999997</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.69599999999999995</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <f t="shared" si="0"/>
         <v>0.53867900000000002</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f t="shared" si="1"/>
         <v>7.6814999999999994E-2</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f t="shared" si="2"/>
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <f t="shared" si="3"/>
         <v>0.172792</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>4</v>
       </c>
     </row>
@@ -2666,38 +2552,38 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>7.5969999999999996E-3</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.54023200000000005</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.55100000000000005</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11" t="str">
+      <c r="R10" s="9"/>
+      <c r="S10" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="9">
         <f t="shared" si="3"/>
         <v>2.8601000000000001E-2</v>
       </c>
-      <c r="V10" s="12"/>
+      <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2709,41 +2595,41 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3.4841999999999998E-2</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.28509000000000001</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <f t="shared" si="0"/>
         <v>3.4841999999999998E-2</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <f t="shared" si="1"/>
         <v>0.151783</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <f t="shared" si="2"/>
         <v>0.153</v>
       </c>
-      <c r="U11" s="9" t="str">
+      <c r="U11" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2757,41 +2643,41 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8.2195000000000004E-2</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.151783</v>
       </c>
       <c r="M12" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>1.2230000000000001</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <f t="shared" si="0"/>
         <v>8.2195000000000004E-2</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f t="shared" si="1"/>
         <v>0.28509000000000001</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f t="shared" si="2"/>
         <v>0.23949999999999999</v>
       </c>
-      <c r="U12" s="9" t="str">
+      <c r="U12" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2805,38 +2691,38 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>-1.0064999999999999E-2</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.249551</v>
       </c>
       <c r="M13" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>-0.63749999999999996</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11" t="str">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T13" s="11" t="str">
+      <c r="T13" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U13" s="11" t="str">
+      <c r="U13" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V13" s="12"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2848,38 +2734,38 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>-1.8422000000000001E-2</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.14796000000000001</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>0.25459999999999999</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11" t="str">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T14" s="11" t="str">
+      <c r="T14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="9">
         <f t="shared" si="3"/>
         <v>2.8972999999999999E-2</v>
       </c>
-      <c r="V14" s="12"/>
+      <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2891,38 +2777,38 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>-1.0817E-2</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>-6.5586000000000005E-2</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>-7.0300000000000001E-2</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11" t="str">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T15" s="11" t="str">
+      <c r="T15" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U15" s="11" t="str">
+      <c r="U15" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V15" s="12"/>
+      <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2934,41 +2820,41 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>-0.131327</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>7.6814999999999994E-2</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <f t="shared" si="0"/>
         <v>-0.131327</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f t="shared" si="1"/>
         <v>-0.62845799999999996</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f t="shared" si="2"/>
         <v>-0.63749999999999996</v>
       </c>
-      <c r="U16" s="9" t="str">
+      <c r="U16" s="8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2982,238 +2868,238 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2.2590000000000002E-3</v>
       </c>
       <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>-4.6299E-2</v>
       </c>
       <c r="M17" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>0.153</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11" t="str">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T17" s="11" t="str">
+      <c r="T17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U17" s="11" t="str">
+      <c r="U17" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V17" s="12"/>
+      <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="11" t="str">
+      <c r="R18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S18" s="11" t="str">
+      <c r="S18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T18" s="11" t="str">
+      <c r="T18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U18" s="11" t="str">
+      <c r="U18" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V18" s="12"/>
+      <c r="V18" s="10"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="9" t="str">
+      <c r="R19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <f t="shared" si="1"/>
         <v>0.54023200000000005</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <f t="shared" si="2"/>
         <v>0.55100000000000005</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="8">
         <f t="shared" si="3"/>
         <v>0.103572</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="11" t="str">
+      <c r="R20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S20" s="11" t="str">
+      <c r="S20" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T20" s="11" t="str">
+      <c r="T20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="9">
         <f t="shared" si="3"/>
         <v>5.4188E-2</v>
       </c>
-      <c r="V20" s="12"/>
+      <c r="V20" s="10"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="11" t="str">
+      <c r="R21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9">
         <f t="shared" si="3"/>
         <v>6.9145999999999999E-2</v>
       </c>
-      <c r="V21" s="12"/>
+      <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="11" t="str">
+      <c r="R22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S22" s="11" t="str">
+      <c r="S22" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T22" s="11" t="str">
+      <c r="T22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U22" s="11" t="str">
+      <c r="U22" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V22" s="12"/>
+      <c r="V22" s="10"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="9" t="str">
+      <c r="R23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <f t="shared" si="1"/>
         <v>0.249551</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <f t="shared" si="2"/>
         <v>0.25459999999999999</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="8">
         <f t="shared" si="3"/>
         <v>2.6365E-2</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="9" t="str">
+      <c r="R24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <f t="shared" si="1"/>
         <v>0.14796000000000001</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <f t="shared" si="2"/>
         <v>0.14879999999999999</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="8">
         <f t="shared" si="3"/>
         <v>0.12781400000000001</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="11" t="str">
+      <c r="R25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="9">
         <f t="shared" si="1"/>
         <v>-4.6299E-2</v>
       </c>
-      <c r="T25" s="11" t="str">
+      <c r="T25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="9">
         <f t="shared" si="3"/>
         <v>5.8472999999999997E-2</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="9" t="str">
+      <c r="R26" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="8">
         <f t="shared" si="1"/>
         <v>-6.5586000000000005E-2</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <f t="shared" si="2"/>
         <v>-7.0300000000000001E-2</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="8">
         <f t="shared" si="3"/>
         <v>8.5706000000000004E-2</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3517,37 +3403,37 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="12"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.34507399999999999</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.70162599999999997</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.23949999999999999</v>
       </c>
     </row>
@@ -3555,19 +3441,19 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.29008299999999998</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1.10043</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.58189999999999997</v>
       </c>
     </row>
@@ -3575,19 +3461,19 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.194526</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>-0.62845799999999996</v>
       </c>
       <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
     </row>
@@ -3595,19 +3481,19 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.53867900000000002</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.58045199999999997</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>0.69599999999999995</v>
       </c>
     </row>
@@ -3615,19 +3501,19 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>7.5969999999999996E-3</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.54023200000000005</v>
       </c>
       <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -3635,19 +3521,19 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3.4841999999999998E-2</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.28509000000000001</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>0.14879999999999999</v>
       </c>
     </row>
@@ -3655,19 +3541,19 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8.2195000000000004E-2</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.151783</v>
       </c>
       <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>1.2230000000000001</v>
       </c>
     </row>
@@ -3675,19 +3561,19 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>-1.0064999999999999E-2</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.249551</v>
       </c>
       <c r="M13" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>-0.63749999999999996</v>
       </c>
     </row>
@@ -3695,19 +3581,19 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>-1.8422000000000001E-2</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.14796000000000001</v>
       </c>
       <c r="M14" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>0.25459999999999999</v>
       </c>
     </row>
@@ -3715,19 +3601,19 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>-1.0817E-2</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>-6.5586000000000005E-2</v>
       </c>
       <c r="M15" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>-7.0300000000000001E-2</v>
       </c>
     </row>
@@ -3735,19 +3621,19 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>-0.131327</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>7.6814999999999994E-2</v>
       </c>
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>-5.7999999999999996E-3</v>
       </c>
     </row>
@@ -3755,19 +3641,19 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2.2590000000000002E-3</v>
       </c>
       <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>-4.6299E-2</v>
       </c>
       <c r="M17" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>0.153</v>
       </c>
     </row>
@@ -3775,19 +3661,19 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1.9703999999999999E-2</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>-3.7852999999999998E-2</v>
       </c>
       <c r="M18" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>-4.9200000000000001E-2</v>
       </c>
     </row>
@@ -3795,13 +3681,13 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.60534200000000005</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>8.0204999999999999E-2</v>
       </c>
     </row>
@@ -3809,13 +3695,13 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>-2.4861999999999999E-2</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>-3.3716000000000003E-2</v>
       </c>
     </row>
@@ -3823,13 +3709,13 @@
       <c r="E21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>-6.0229999999999999E-2</v>
       </c>
       <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>-2.7643999999999998E-2</v>
       </c>
     </row>
@@ -3837,13 +3723,13 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>2.1965999999999999E-2</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>1.9262999999999999E-2</v>
       </c>
     </row>
@@ -3851,13 +3737,13 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.123639</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>5.8298999999999997E-2</v>
       </c>
     </row>
@@ -3865,13 +3751,13 @@
       <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.42418800000000001</v>
       </c>
       <c r="I24" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.109254</v>
       </c>
     </row>
@@ -3879,13 +3765,13 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>-4.6268999999999998E-2</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>-6.1850000000000004E-3</v>
       </c>
     </row>
@@ -3893,13 +3779,13 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>-0.14676800000000001</v>
       </c>
       <c r="I26" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>-3.4810000000000002E-3</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\workdir\BBdata\GitHub\Diabetes.Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4128AD-8B4A-4D5E-8817-D784A78EBFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28042FA6-2D70-47B5-AD84-D8053453DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97AEA7D5-8005-43BD-8443-694ADBBC5B00}"/>
   </bookViews>
@@ -231,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +267,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,16 +320,11 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,6 +341,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2302,7 +2310,7 @@
   <dimension ref="A5:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,35 +2326,35 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="12" t="s">
+      <c r="F5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="Q5" s="1" t="s">
+      <c r="N5" s="9"/>
+      <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2360,41 +2368,41 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.34507399999999999</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.70162599999999997</v>
       </c>
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.23949999999999999</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="5">
         <f>IFERROR(VLOOKUP(Q6,E:F,2,0),"")</f>
         <v>0.34507399999999999</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="5">
         <f>IFERROR(VLOOKUP(Q6,I:J,2,0),"")</f>
         <v>0.70162599999999997</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="5">
         <f>IFERROR(VLOOKUP(Q6,M:N,2,0),"")</f>
         <v>0.69599999999999995</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="5">
         <f>IFERROR(VLOOKUP(Q6,A:B,2,0),"")</f>
         <v>7.0749999999999993E-2</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2408,41 +2416,41 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.29008299999999998</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1.10043</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.58189999999999997</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="5">
         <f t="shared" ref="R7:R26" si="0">IFERROR(VLOOKUP(Q7,E:F,2,0),"")</f>
         <v>0.29008299999999998</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="5">
         <f t="shared" ref="S7:S26" si="1">IFERROR(VLOOKUP(Q7,I:J,2,0),"")</f>
         <v>0.58045199999999997</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="5">
         <f t="shared" ref="T7:T26" si="2">IFERROR(VLOOKUP(Q7,M:N,2,0),"")</f>
         <v>0.58189999999999997</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="5">
         <f t="shared" ref="U7:U26" si="3">IFERROR(VLOOKUP(Q7,A:B,2,0),"")</f>
         <v>3.9087999999999998E-2</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2456,41 +2464,41 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.194526</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>-0.62845799999999996</v>
       </c>
       <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>0.194526</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="5">
         <f t="shared" si="1"/>
         <v>1.10043</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="5">
         <f t="shared" si="2"/>
         <v>1.2230000000000001</v>
       </c>
-      <c r="U8" s="8" t="str">
+      <c r="U8" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2504,41 +2512,41 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.53867900000000002</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.58045199999999997</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0.69599999999999995</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>0.53867900000000002</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="5">
         <f t="shared" si="1"/>
         <v>7.6814999999999994E-2</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="5">
         <f t="shared" si="2"/>
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="5">
         <f t="shared" si="3"/>
         <v>0.172792</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2552,38 +2560,38 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>7.5969999999999996E-3</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.54023200000000005</v>
       </c>
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0.55100000000000005</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9" t="str">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T10" s="9" t="str">
+      <c r="T10" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="6">
         <f t="shared" si="3"/>
         <v>2.8601000000000001E-2</v>
       </c>
-      <c r="V10" s="10"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2595,41 +2603,41 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3.4841999999999998E-2</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.28509000000000001</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0.14879999999999999</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>3.4841999999999998E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="5">
         <f t="shared" si="1"/>
         <v>0.151783</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="5">
         <f t="shared" si="2"/>
         <v>0.153</v>
       </c>
-      <c r="U11" s="8" t="str">
+      <c r="U11" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2643,41 +2651,41 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>8.2195000000000004E-2</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0.151783</v>
       </c>
       <c r="M12" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>1.2230000000000001</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>8.2195000000000004E-2</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="5">
         <f t="shared" si="1"/>
         <v>0.28509000000000001</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="5">
         <f t="shared" si="2"/>
         <v>0.23949999999999999</v>
       </c>
-      <c r="U12" s="8" t="str">
+      <c r="U12" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2691,38 +2699,38 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>-1.0064999999999999E-2</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.249551</v>
       </c>
       <c r="M13" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>-0.63749999999999996</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9" t="str">
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T13" s="9" t="str">
+      <c r="T13" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U13" s="9" t="str">
+      <c r="U13" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2734,38 +2742,38 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>-1.8422000000000001E-2</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.14796000000000001</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.25459999999999999</v>
       </c>
       <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9" t="str">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T14" s="9" t="str">
+      <c r="T14" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <f t="shared" si="3"/>
         <v>2.8972999999999999E-2</v>
       </c>
-      <c r="V14" s="10"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2777,38 +2785,38 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>-1.0817E-2</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>-6.5586000000000005E-2</v>
       </c>
       <c r="M15" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>-7.0300000000000001E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9" t="str">
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T15" s="9" t="str">
+      <c r="T15" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U15" s="9" t="str">
+      <c r="U15" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2820,41 +2828,41 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>-0.131327</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>7.6814999999999994E-2</v>
       </c>
       <c r="M16" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="5">
         <f t="shared" si="0"/>
         <v>-0.131327</v>
       </c>
-      <c r="S16" s="8">
+      <c r="S16" s="5">
         <f t="shared" si="1"/>
         <v>-0.62845799999999996</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="5">
         <f t="shared" si="2"/>
         <v>-0.63749999999999996</v>
       </c>
-      <c r="U16" s="8" t="str">
+      <c r="U16" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2868,82 +2876,82 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>2.2590000000000002E-3</v>
       </c>
       <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>-4.6299E-2</v>
       </c>
       <c r="M17" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>0.153</v>
       </c>
       <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9" t="str">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T17" s="9" t="str">
+      <c r="T17" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U17" s="9" t="str">
+      <c r="U17" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="9" t="str">
+      <c r="R18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S18" s="9" t="str">
+      <c r="S18" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T18" s="9" t="str">
+      <c r="T18" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U18" s="9" t="str">
+      <c r="U18" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V18" s="10"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R19" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="5">
         <f t="shared" si="1"/>
         <v>0.54023200000000005</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="5">
         <f t="shared" si="2"/>
         <v>0.55100000000000005</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="5">
         <f t="shared" si="3"/>
         <v>0.103572</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2951,107 +2959,107 @@
       <c r="Q20" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="9" t="str">
+      <c r="R20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S20" s="9" t="str">
+      <c r="S20" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="T20" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="6">
         <f t="shared" si="3"/>
         <v>5.4188E-2</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q21" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="9" t="str">
+      <c r="R21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6">
         <f t="shared" si="3"/>
         <v>6.9145999999999999E-2</v>
       </c>
-      <c r="V21" s="10"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q22" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="9" t="str">
+      <c r="R22" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S22" s="9" t="str">
+      <c r="S22" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="T22" s="9" t="str">
+      <c r="T22" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U22" s="9" t="str">
+      <c r="U22" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V22" s="10"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R23" s="8" t="str">
+      <c r="R23" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="5">
         <f t="shared" si="1"/>
         <v>0.249551</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="5">
         <f t="shared" si="2"/>
         <v>0.25459999999999999</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="5">
         <f t="shared" si="3"/>
         <v>2.6365E-2</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R24" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="5">
         <f t="shared" si="1"/>
         <v>0.14796000000000001</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="5">
         <f t="shared" si="2"/>
         <v>0.14879999999999999</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="5">
         <f t="shared" si="3"/>
         <v>0.12781400000000001</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3059,47 +3067,47 @@
       <c r="Q25" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="9" t="str">
+      <c r="R25" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="6">
         <f t="shared" si="1"/>
         <v>-4.6299E-2</v>
       </c>
-      <c r="T25" s="9" t="str">
+      <c r="T25" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U25" s="9">
+      <c r="U25" s="6">
         <f t="shared" si="3"/>
         <v>5.8472999999999997E-2</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R26" s="8" t="str">
+      <c r="R26" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="5">
         <f t="shared" si="1"/>
         <v>-6.5586000000000005E-2</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="5">
         <f t="shared" si="2"/>
         <v>-7.0300000000000001E-2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="5">
         <f t="shared" si="3"/>
         <v>8.5706000000000004E-2</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="4">
         <v>3</v>
       </c>
     </row>
@@ -3110,7 +3118,8 @@
     <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3403,37 +3412,37 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="12" t="s">
+      <c r="F5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.34507399999999999</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.70162599999999997</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.23949999999999999</v>
       </c>
     </row>
@@ -3441,19 +3450,19 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.29008299999999998</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1.10043</v>
       </c>
       <c r="M7" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.58189999999999997</v>
       </c>
     </row>
@@ -3461,19 +3470,19 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.194526</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>-0.62845799999999996</v>
       </c>
       <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>7.7100000000000002E-2</v>
       </c>
     </row>
@@ -3481,19 +3490,19 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.53867900000000002</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.58045199999999997</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0.69599999999999995</v>
       </c>
     </row>
@@ -3501,19 +3510,19 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>7.5969999999999996E-3</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.54023200000000005</v>
       </c>
       <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -3521,19 +3530,19 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>3.4841999999999998E-2</v>
       </c>
       <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0.28509000000000001</v>
       </c>
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0.14879999999999999</v>
       </c>
     </row>
@@ -3541,19 +3550,19 @@
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>8.2195000000000004E-2</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0.151783</v>
       </c>
       <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>1.2230000000000001</v>
       </c>
     </row>
@@ -3561,19 +3570,19 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>-1.0064999999999999E-2</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0.249551</v>
       </c>
       <c r="M13" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>-0.63749999999999996</v>
       </c>
     </row>
@@ -3581,19 +3590,19 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>-1.8422000000000001E-2</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.14796000000000001</v>
       </c>
       <c r="M14" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.25459999999999999</v>
       </c>
     </row>
@@ -3601,19 +3610,19 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>-1.0817E-2</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>-6.5586000000000005E-2</v>
       </c>
       <c r="M15" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>-7.0300000000000001E-2</v>
       </c>
     </row>
@@ -3621,19 +3630,19 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>-0.131327</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>7.6814999999999994E-2</v>
       </c>
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>-5.7999999999999996E-3</v>
       </c>
     </row>
@@ -3641,19 +3650,19 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>2.2590000000000002E-3</v>
       </c>
       <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>-4.6299E-2</v>
       </c>
       <c r="M17" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>0.153</v>
       </c>
     </row>
@@ -3661,19 +3670,19 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1.9703999999999999E-2</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>-3.7852999999999998E-2</v>
       </c>
       <c r="M18" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>-4.9200000000000001E-2</v>
       </c>
     </row>
@@ -3681,13 +3690,13 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.60534200000000005</v>
       </c>
       <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>8.0204999999999999E-2</v>
       </c>
     </row>
@@ -3695,13 +3704,13 @@
       <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>-2.4861999999999999E-2</v>
       </c>
       <c r="I20" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>-3.3716000000000003E-2</v>
       </c>
     </row>
@@ -3709,13 +3718,13 @@
       <c r="E21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>-6.0229999999999999E-2</v>
       </c>
       <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>-2.7643999999999998E-2</v>
       </c>
     </row>
@@ -3723,13 +3732,13 @@
       <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>2.1965999999999999E-2</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>1.9262999999999999E-2</v>
       </c>
     </row>
@@ -3737,13 +3746,13 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0.123639</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>5.8298999999999997E-2</v>
       </c>
     </row>
@@ -3751,13 +3760,13 @@
       <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0.42418800000000001</v>
       </c>
       <c r="I24" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>0.109254</v>
       </c>
     </row>
@@ -3765,13 +3774,13 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>-4.6268999999999998E-2</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>-6.1850000000000004E-3</v>
       </c>
     </row>
@@ -3779,13 +3788,13 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>-0.14676800000000001</v>
       </c>
       <c r="I26" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>-3.4810000000000002E-3</v>
       </c>
     </row>
